--- a/Assets/xlsx/strs.xlsx
+++ b/Assets/xlsx/strs.xlsx
@@ -6,7 +6,7 @@
     <x:workbookView firstSheet="0" activeTab="0"/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet name="Str" sheetId="2" r:id="rId2"/>
+    <x:sheet name="ExtStr" sheetId="2" r:id="rId2"/>
   </x:sheets>
   <x:definedNames/>
   <x:calcPr calcId="125725"/>
@@ -14,7 +14,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+  <x:si>
+    <x:t>info</x:t>
+  </x:si>
   <x:si>
     <x:t>code</x:t>
   </x:si>
@@ -28,9 +31,15 @@
     <x:t>eng</x:t>
   </x:si>
   <x:si>
+    <x:t>CharacterInfo_name</x:t>
+  </x:si>
+  <x:si>
     <x:t>Swordman</x:t>
   </x:si>
   <x:si>
+    <x:t>CharacterInfo_desc</x:t>
+  </x:si>
+  <x:si>
     <x:t>Story of the Swordman</x:t>
   </x:si>
   <x:si>
@@ -40,7 +49,13 @@
     <x:t>Story of the Witch</x:t>
   </x:si>
   <x:si>
+    <x:t>CharacterSkill_name</x:t>
+  </x:si>
+  <x:si>
     <x:t>Vanguard</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CharacterSkill_desc</x:t>
   </x:si>
   <x:si>
     <x:t>&lt;color=#10FF6A&gt;+{VanguardChance}%&lt;/color&gt; extra damage of Last Attack</x:t>
@@ -412,13 +427,13 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:D13"/>
+  <x:dimension ref="A1:E13"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData>
-    <x:row r="1" spans="1:4">
+    <x:row r="1" spans="1:5">
       <x:c r="A1" s="0" t="s">
         <x:v>0</x:v>
       </x:c>
@@ -431,150 +446,189 @@
       <x:c r="D1" s="0" t="s">
         <x:v>3</x:v>
       </x:c>
-    </x:row>
-    <x:row r="2" spans="1:4">
-      <x:c r="A2" s="0" t="n">
+      <x:c r="E1" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:5">
+      <x:c r="A2" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B2" s="0" t="n">
         <x:v>101</x:v>
       </x:c>
-      <x:c r="B2" s="0" t="n">
+      <x:c r="C2" s="0" t="n">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="C2" s="0" t="s">
+      <x:c r="D2" s="0" t="s"/>
+      <x:c r="E2" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:5">
+      <x:c r="A3" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="B3" s="0" t="n">
+        <x:v>101</x:v>
+      </x:c>
+      <x:c r="C3" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="D3" s="0" t="s"/>
+      <x:c r="E3" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:5">
+      <x:c r="A4" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B4" s="0" t="n">
+        <x:v>102</x:v>
+      </x:c>
+      <x:c r="C4" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="D4" s="0" t="s"/>
+      <x:c r="E4" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:5">
+      <x:c r="A5" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="B5" s="0" t="n">
+        <x:v>102</x:v>
+      </x:c>
+      <x:c r="C5" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="D5" s="0" t="s"/>
+      <x:c r="E5" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:5">
+      <x:c r="A6" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="B6" s="0" t="n">
+        <x:v>10101</x:v>
+      </x:c>
+      <x:c r="C6" s="0" t="n">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="D6" s="0" t="s"/>
+      <x:c r="E6" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:5">
+      <x:c r="A7" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="B7" s="0" t="n">
+        <x:v>10101</x:v>
+      </x:c>
+      <x:c r="C7" s="0" t="n">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="D2" s="0" t="s"/>
-    </x:row>
-    <x:row r="3" spans="1:4">
-      <x:c r="A3" s="0" t="n">
-        <x:v>101</x:v>
-      </x:c>
-      <x:c r="B3" s="0" t="n">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="C3" s="0" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="D3" s="0" t="s"/>
-    </x:row>
-    <x:row r="4" spans="1:4">
-      <x:c r="A4" s="0" t="n">
-        <x:v>102</x:v>
-      </x:c>
-      <x:c r="B4" s="0" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="C4" s="0" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="D4" s="0" t="s"/>
-    </x:row>
-    <x:row r="5" spans="1:4">
-      <x:c r="A5" s="0" t="n">
-        <x:v>102</x:v>
-      </x:c>
-      <x:c r="B5" s="0" t="n">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="C5" s="0" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="D5" s="0" t="s"/>
-    </x:row>
-    <x:row r="6" spans="1:4">
-      <x:c r="A6" s="0" t="n">
-        <x:v>10101</x:v>
-      </x:c>
-      <x:c r="B6" s="0" t="n">
+      <x:c r="D7" s="0" t="s"/>
+      <x:c r="E7" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:5">
+      <x:c r="A8" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="B8" s="0" t="n">
+        <x:v>10102</x:v>
+      </x:c>
+      <x:c r="C8" s="0" t="n">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="C6" s="0" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="D6" s="0" t="s"/>
-    </x:row>
-    <x:row r="7" spans="1:4">
-      <x:c r="A7" s="0" t="n">
-        <x:v>10101</x:v>
-      </x:c>
-      <x:c r="B7" s="0" t="n">
+      <x:c r="D8" s="0" t="s"/>
+      <x:c r="E8" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:5">
+      <x:c r="A9" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="B9" s="0" t="n">
+        <x:v>10102</x:v>
+      </x:c>
+      <x:c r="C9" s="0" t="n">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="C7" s="0" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="D7" s="0" t="s"/>
-    </x:row>
-    <x:row r="8" spans="1:4">
-      <x:c r="A8" s="0" t="n">
-        <x:v>10102</x:v>
-      </x:c>
-      <x:c r="B8" s="0" t="n">
+      <x:c r="D9" s="0" t="s"/>
+      <x:c r="E9" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="1:5">
+      <x:c r="A10" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="B10" s="0" t="n">
+        <x:v>10201</x:v>
+      </x:c>
+      <x:c r="C10" s="0" t="n">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="C8" s="0" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="D8" s="0" t="s"/>
-    </x:row>
-    <x:row r="9" spans="1:4">
-      <x:c r="A9" s="0" t="n">
-        <x:v>10102</x:v>
-      </x:c>
-      <x:c r="B9" s="0" t="n">
+      <x:c r="D10" s="0" t="s"/>
+      <x:c r="E10" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="1:5">
+      <x:c r="A11" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="B11" s="0" t="n">
+        <x:v>10201</x:v>
+      </x:c>
+      <x:c r="C11" s="0" t="n">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="C9" s="0" t="s">
+      <x:c r="D11" s="0" t="s"/>
+      <x:c r="E11" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="1:5">
+      <x:c r="A12" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
-      <x:c r="D9" s="0" t="s"/>
-    </x:row>
-    <x:row r="10" spans="1:4">
-      <x:c r="A10" s="0" t="n">
-        <x:v>10201</x:v>
-      </x:c>
-      <x:c r="B10" s="0" t="n">
+      <x:c r="B12" s="0" t="n">
+        <x:v>10202</x:v>
+      </x:c>
+      <x:c r="C12" s="0" t="n">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="C10" s="0" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="D10" s="0" t="s"/>
-    </x:row>
-    <x:row r="11" spans="1:4">
-      <x:c r="A11" s="0" t="n">
-        <x:v>10201</x:v>
-      </x:c>
-      <x:c r="B11" s="0" t="n">
+      <x:c r="D12" s="0" t="s"/>
+      <x:c r="E12" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13" spans="1:5">
+      <x:c r="A13" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="B13" s="0" t="n">
+        <x:v>10202</x:v>
+      </x:c>
+      <x:c r="C13" s="0" t="n">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="C11" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="D11" s="0" t="s"/>
-    </x:row>
-    <x:row r="12" spans="1:4">
-      <x:c r="A12" s="0" t="n">
-        <x:v>10202</x:v>
-      </x:c>
-      <x:c r="B12" s="0" t="n">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="C12" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="D12" s="0" t="s"/>
-    </x:row>
-    <x:row r="13" spans="1:4">
-      <x:c r="A13" s="0" t="n">
-        <x:v>10202</x:v>
-      </x:c>
-      <x:c r="B13" s="0" t="n">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="C13" s="0" t="s">
-        <x:v>15</x:v>
-      </x:c>
       <x:c r="D13" s="0" t="s"/>
+      <x:c r="E13" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
